--- a/Savings_Goal.xlsx
+++ b/Savings_Goal.xlsx
@@ -1,37 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DhamodV\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhamodv\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E52B906-D26A-4984-938E-8A756B8E35DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{403A25F5-8B72-4336-9C66-FEBCEA5F5007}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15120" windowHeight="11385" xr2:uid="{2298BE6A-450F-4626-B228-B4648D343613}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15120" windowHeight="11385" activeTab="2" xr2:uid="{2298BE6A-450F-4626-B228-B4648D343613}"/>
   </bookViews>
   <sheets>
     <sheet name="Consolidated" sheetId="1" r:id="rId1"/>
     <sheet name="Breakdown" sheetId="2" r:id="rId2"/>
+    <sheet name="Groceries_Spending" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="28">
   <si>
     <t>Category</t>
   </si>
@@ -112,6 +108,9 @@
   </si>
   <si>
     <t xml:space="preserve">Credit Card Expenses </t>
+  </si>
+  <si>
+    <t>Expenditure</t>
   </si>
 </sst>
 </file>
@@ -273,7 +272,37 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="25">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
@@ -410,7 +439,7 @@
   <autoFilter ref="B5:C21" xr:uid="{1DE6BAE3-E864-4C3D-B6C1-A00BDB4FF619}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{B4F0FD41-DBEF-4B4B-B592-231822D03941}" name="Date"/>
-    <tableColumn id="2" xr3:uid="{9D06D7E9-72EC-4E2A-A1DF-DA6135695876}" name="Amount" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{9D06D7E9-72EC-4E2A-A1DF-DA6135695876}" name="Amount" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -454,7 +483,7 @@
   <autoFilter ref="H3:I19" xr:uid="{30F92D92-B969-4F0E-BB1E-C42E3B0382F7}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{DB8E68BD-93EC-4945-B4C9-47567EBD9F8F}" name="Date"/>
-    <tableColumn id="2" xr3:uid="{351A1A8B-2A93-4CBD-8139-50DD4586F93F}" name="Amount" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{351A1A8B-2A93-4CBD-8139-50DD4586F93F}" name="Amount" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -465,7 +494,7 @@
   <autoFilter ref="K3:L19" xr:uid="{7B458E06-0EC2-40F8-9857-DAEF8ABF8867}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{BF5B998E-A004-46B0-B8C5-73E6209F8CF5}" name="Date"/>
-    <tableColumn id="2" xr3:uid="{FA1719F0-B542-4639-BE94-3CBC0962DF1E}" name="Amount" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{FA1719F0-B542-4639-BE94-3CBC0962DF1E}" name="Amount" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -476,9 +505,53 @@
   <autoFilter ref="N3:O19" xr:uid="{426D50A7-B1D5-4232-8921-6ED78F8C2F73}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{AC1A6E09-9367-4F79-9C09-ED0279EE788F}" name="Date"/>
-    <tableColumn id="2" xr3:uid="{90EF64D5-47BE-4603-B4E5-51AE73BB2E46}" name="Amount" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{90EF64D5-47BE-4603-B4E5-51AE73BB2E46}" name="Amount" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{C82AB339-C796-4BD9-8878-A91ABDE6E977}" name="Table13" displayName="Table13" ref="B2:C18" totalsRowShown="0">
+  <autoFilter ref="B2:C18" xr:uid="{BD4180BA-FDC1-4526-B8A9-732C66863E04}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{E3B55915-4005-4612-BFB8-3B96A8CB79B7}" name="Date"/>
+    <tableColumn id="2" xr3:uid="{2ED674BE-A82F-4C8A-AE69-3F4A46C01FEF}" name="Expenditure" dataDxfId="9"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{78EF2F9D-0502-4C70-895F-B783BFFD33DC}" name="Table1319" displayName="Table1319" ref="E2:F18" totalsRowShown="0">
+  <autoFilter ref="E2:F18" xr:uid="{B433A529-EB71-4EAC-819F-8327570BE853}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{C0FCD5A5-2687-40DA-9939-88D89EBD16C2}" name="Date"/>
+    <tableColumn id="2" xr3:uid="{D5464077-8909-47E0-AB77-5A202FA540F6}" name="Expenditure" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{429E55D1-62A9-4585-90B2-392BEFC2B98F}" name="Table131920" displayName="Table131920" ref="H2:I18" totalsRowShown="0">
+  <autoFilter ref="H2:I18" xr:uid="{D6778556-F299-49B4-B5A3-29588548B041}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{5AA3E75E-A410-40AF-9069-35A57471113A}" name="Date"/>
+    <tableColumn id="2" xr3:uid="{79227395-1230-4197-B445-C8CEB560CBCE}" name="Expenditure" dataDxfId="7"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{B92E3507-3DD3-448D-9770-F60E787872AF}" name="Table13192021" displayName="Table13192021" ref="K2:L18" totalsRowShown="0">
+  <autoFilter ref="K2:L18" xr:uid="{339B4DB6-E504-49C7-94F7-6D55D6B53A70}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{161A313E-A239-45A9-A298-954B6133E1E6}" name="Date"/>
+    <tableColumn id="2" xr3:uid="{25D29E29-D08E-41C1-BA30-83B835CF9FA9}" name="Expenditure" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -487,7 +560,7 @@
   <autoFilter ref="K6:L9" xr:uid="{188CA9D7-5542-44EE-A720-3C2E62CFBF8B}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{33660299-2D28-4748-B263-D08B8B05359E}" name="Category"/>
-    <tableColumn id="2" xr3:uid="{C3722287-B41D-4D7C-A7C5-0C75D789EB24}" name="Amount" dataDxfId="13">
+    <tableColumn id="2" xr3:uid="{C3722287-B41D-4D7C-A7C5-0C75D789EB24}" name="Amount" dataDxfId="23">
       <calculatedColumnFormula>$C$21</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -495,12 +568,78 @@
 </table>
 </file>
 
+<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{79DE3373-9234-4929-97B2-CFD00A51721C}" name="Table1319202122" displayName="Table1319202122" ref="N2:O18" totalsRowShown="0">
+  <autoFilter ref="N2:O18" xr:uid="{FAC7F123-B569-4909-9B0E-D1FA562EA8F2}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{2972CB97-F78B-4583-ADA4-88957615C2EE}" name="Date"/>
+    <tableColumn id="2" xr3:uid="{EAB4F86A-C7FD-4710-9B3D-A699DEAAD0A6}" name="Expenditure" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{51D72919-39CA-4B98-AD9D-DF4E2F49363D}" name="Table1323" displayName="Table1323" ref="B21:C37" totalsRowShown="0">
+  <autoFilter ref="B21:C37" xr:uid="{DA2896F5-4299-4FE5-A9C8-DBD7E774238E}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{B9025C86-7F1F-4A1B-AFD3-00AC12414540}" name="Date"/>
+    <tableColumn id="2" xr3:uid="{347EB767-E8D3-4CD7-9F59-C375094C3868}" name="Expenditure" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{3C4973DD-E387-4211-B024-11281D7C290C}" name="Table132324" displayName="Table132324" ref="E21:F37" totalsRowShown="0">
+  <autoFilter ref="E21:F37" xr:uid="{D7E58196-3E2B-4B35-93EE-7789DFB852DA}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{757266FA-5DEF-47A9-9F54-DE145B071D08}" name="Date"/>
+    <tableColumn id="2" xr3:uid="{9F4DB7CB-7884-41E8-BF3E-1DEA2CCFE795}" name="Expenditure" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{C93A9449-5846-4E17-AA23-4C055427D2DD}" name="Table13232425" displayName="Table13232425" ref="H21:I37" totalsRowShown="0">
+  <autoFilter ref="H21:I37" xr:uid="{A68C0587-FA90-42E2-8EF3-4510F633035E}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{FED94E91-359C-4BB7-8CB1-F8A2BE6FC31F}" name="Date"/>
+    <tableColumn id="2" xr3:uid="{DA46B0D7-4A33-4E5C-8873-088FE655FB86}" name="Expenditure" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{497F347C-6C63-452A-BBCA-DD4D67254BBD}" name="Table1323242526" displayName="Table1323242526" ref="K21:L37" totalsRowShown="0">
+  <autoFilter ref="K21:L37" xr:uid="{54F4593E-FA73-428F-A517-FA54BE7209E7}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{2B63FFCA-F6F8-4348-B2FB-BFC00B4DB499}" name="Date"/>
+    <tableColumn id="2" xr3:uid="{9FC58978-658B-4D33-B014-1F5EF3429EBF}" name="Expenditure" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{1292C1E8-A09A-412B-99AD-A5F925AA6D4A}" name="Table132324252627" displayName="Table132324252627" ref="N21:O37" totalsRowShown="0">
+  <autoFilter ref="N21:O37" xr:uid="{E5D59871-45D4-45DB-AC05-C1C9E7041030}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{2F9F1F2C-705A-4664-9B5B-38EDCD23CEC2}" name="Date"/>
+    <tableColumn id="2" xr3:uid="{D1F3C0CD-D327-40E9-8025-7C1001F4AC96}" name="Expenditure" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{979945C5-BD13-4088-8E96-56AC2AD73A42}" name="Table117" displayName="Table117" ref="H6:I18" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{979945C5-BD13-4088-8E96-56AC2AD73A42}" name="Table117" displayName="Table117" ref="H6:I18" totalsRowShown="0" headerRowDxfId="22" headerRowBorderDxfId="21" tableBorderDxfId="20" totalsRowBorderDxfId="19">
   <autoFilter ref="H6:I18" xr:uid="{04AA1CF5-039D-4C58-AA0E-749737592DBB}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C2D196E5-4A3C-45C5-BF1B-E692ADBCE0AA}" name="Category" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{404C7182-E06F-410A-B92B-078239B2533D}" name="Amount" dataDxfId="7">
+    <tableColumn id="1" xr3:uid="{C2D196E5-4A3C-45C5-BF1B-E692ADBCE0AA}" name="Category" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{404C7182-E06F-410A-B92B-078239B2533D}" name="Amount" dataDxfId="17">
       <calculatedColumnFormula>Breakdown!$C$19</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -513,7 +652,7 @@
   <autoFilter ref="K15:L18" xr:uid="{03C11011-2545-4A49-8772-59A2D19150F0}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{BDC3043E-61C9-492E-B03C-BB2960D7EE17}" name="Category"/>
-    <tableColumn id="2" xr3:uid="{2E2716D6-0503-4D7C-970B-BD866B76AA80}" name="Amount" dataDxfId="6">
+    <tableColumn id="2" xr3:uid="{2E2716D6-0503-4D7C-970B-BD866B76AA80}" name="Amount" dataDxfId="16">
       <calculatedColumnFormula>$C$21</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -526,7 +665,7 @@
   <autoFilter ref="E5:F21" xr:uid="{58649800-63B4-4852-B206-29C6571ADFA4}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{836BC37D-7F77-4704-AE48-43CCBEA91EDC}" name="Date"/>
-    <tableColumn id="2" xr3:uid="{6ED5C47C-C06E-4B86-B6A2-2350127E1FF5}" name="Amount" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{6ED5C47C-C06E-4B86-B6A2-2350127E1FF5}" name="Amount" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -537,7 +676,7 @@
   <autoFilter ref="B3:C19" xr:uid="{CE5D4E98-638A-497C-8DBD-93568559FEAE}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{3990EF40-C4C0-4EB1-8DC7-E2A3CD6217AA}" name="Date"/>
-    <tableColumn id="2" xr3:uid="{AD86EFD5-216F-4564-8532-A6BA5ADA9820}" name="Amount" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{AD86EFD5-216F-4564-8532-A6BA5ADA9820}" name="Amount" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -548,7 +687,7 @@
   <autoFilter ref="E3:F19" xr:uid="{A481DC3A-1175-4B55-A429-7A73014103E7}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{B35EE6E0-BDF7-46A6-A310-58CC6879A611}" name="Date"/>
-    <tableColumn id="2" xr3:uid="{3945AB6B-887E-4097-9F9B-2CE13FD28EF6}" name="Amount" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{3945AB6B-887E-4097-9F9B-2CE13FD28EF6}" name="Amount" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -875,7 +1014,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D0FB32-B133-4543-B9F3-E7137EE435F4}">
   <dimension ref="B1:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
@@ -1393,7 +1532,7 @@
   <dimension ref="B2:O33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="H2" sqref="H2:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2401,4 +2540,823 @@
     <tablePart r:id="rId11"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3941DC1-A6CB-4D7B-89A5-8BDF19C56A8D}">
+  <dimension ref="B2:O37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="4">
+        <v>43643</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="E3" s="4">
+        <v>43657</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="H3" s="4">
+        <v>43671</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="K3" s="4">
+        <v>43685</v>
+      </c>
+      <c r="L3" s="5"/>
+      <c r="N3" s="4">
+        <v>43699</v>
+      </c>
+      <c r="O3" s="5"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="4">
+        <v>43644</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="E4" s="4">
+        <v>43658</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="H4" s="4">
+        <v>43672</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="K4" s="4">
+        <v>43686</v>
+      </c>
+      <c r="L4" s="5"/>
+      <c r="N4" s="4">
+        <v>43700</v>
+      </c>
+      <c r="O4" s="5"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="4">
+        <v>43645</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="E5" s="4">
+        <v>43659</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="H5" s="4">
+        <v>43673</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="K5" s="4">
+        <v>43687</v>
+      </c>
+      <c r="L5" s="5"/>
+      <c r="N5" s="4">
+        <v>43701</v>
+      </c>
+      <c r="O5" s="5"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>43646</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="E6" s="4">
+        <v>43660</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="H6" s="4">
+        <v>43674</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="K6" s="4">
+        <v>43688</v>
+      </c>
+      <c r="L6" s="5"/>
+      <c r="N6" s="4">
+        <v>43702</v>
+      </c>
+      <c r="O6" s="5"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="4">
+        <v>43647</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="E7" s="4">
+        <v>43661</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="H7" s="4">
+        <v>43675</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="K7" s="4">
+        <v>43689</v>
+      </c>
+      <c r="L7" s="5"/>
+      <c r="N7" s="4">
+        <v>43703</v>
+      </c>
+      <c r="O7" s="5"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
+        <v>43648</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="E8" s="4">
+        <v>43662</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="H8" s="4">
+        <v>43676</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="K8" s="4">
+        <v>43690</v>
+      </c>
+      <c r="L8" s="5"/>
+      <c r="N8" s="4">
+        <v>43704</v>
+      </c>
+      <c r="O8" s="5"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="4">
+        <v>43649</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="E9" s="4">
+        <v>43663</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="H9" s="4">
+        <v>43677</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="K9" s="4">
+        <v>43691</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="N9" s="4">
+        <v>43705</v>
+      </c>
+      <c r="O9" s="5"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
+        <v>43650</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="E10" s="4">
+        <v>43664</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="H10" s="4">
+        <v>43678</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="K10" s="4">
+        <v>43692</v>
+      </c>
+      <c r="L10" s="5"/>
+      <c r="N10" s="4">
+        <v>43706</v>
+      </c>
+      <c r="O10" s="5"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="4">
+        <v>43651</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="E11" s="4">
+        <v>43665</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="H11" s="4">
+        <v>43679</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="K11" s="4">
+        <v>43693</v>
+      </c>
+      <c r="L11" s="5"/>
+      <c r="N11" s="4">
+        <v>43707</v>
+      </c>
+      <c r="O11" s="5"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>43652</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="E12" s="4">
+        <v>43666</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="H12" s="4">
+        <v>43680</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="K12" s="4">
+        <v>43694</v>
+      </c>
+      <c r="L12" s="5"/>
+      <c r="N12" s="4">
+        <v>43708</v>
+      </c>
+      <c r="O12" s="5"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="4">
+        <v>43653</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="E13" s="4">
+        <v>43667</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="H13" s="4">
+        <v>43681</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="K13" s="4">
+        <v>43695</v>
+      </c>
+      <c r="L13" s="5"/>
+      <c r="N13" s="4">
+        <v>43709</v>
+      </c>
+      <c r="O13" s="5"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>43654</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="E14" s="4">
+        <v>43668</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="H14" s="4">
+        <v>43682</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="K14" s="4">
+        <v>43696</v>
+      </c>
+      <c r="L14" s="5"/>
+      <c r="N14" s="4">
+        <v>43710</v>
+      </c>
+      <c r="O14" s="5"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="4">
+        <v>43655</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="E15" s="4">
+        <v>43669</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="H15" s="4">
+        <v>43683</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="K15" s="4">
+        <v>43697</v>
+      </c>
+      <c r="L15" s="5"/>
+      <c r="N15" s="4">
+        <v>43711</v>
+      </c>
+      <c r="O15" s="5"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
+        <v>43656</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="E16" s="4">
+        <v>43670</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="H16" s="4">
+        <v>43684</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="K16" s="4">
+        <v>43698</v>
+      </c>
+      <c r="L16" s="5"/>
+      <c r="N16" s="4">
+        <v>43712</v>
+      </c>
+      <c r="O16" s="5"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="5"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="5"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="5"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="5"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="5">
+        <f>SUM(C3:C16)</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="5">
+        <f>SUM(F3:F16)</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I18" s="5">
+        <f>SUM(I3:I16)</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L18" s="5">
+        <f>SUM(L3:L16)</f>
+        <v>0</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O18" s="5">
+        <f>SUM(O3:O16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" t="s">
+        <v>27</v>
+      </c>
+      <c r="K21" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" t="s">
+        <v>27</v>
+      </c>
+      <c r="N21" t="s">
+        <v>8</v>
+      </c>
+      <c r="O21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
+        <v>43713</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="E22" s="4">
+        <v>43727</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="H22" s="4">
+        <v>43741</v>
+      </c>
+      <c r="I22" s="5"/>
+      <c r="K22" s="4">
+        <v>43755</v>
+      </c>
+      <c r="L22" s="5"/>
+      <c r="N22" s="4">
+        <v>43769</v>
+      </c>
+      <c r="O22" s="5"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="4">
+        <v>43714</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="E23" s="4">
+        <v>43728</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="H23" s="4">
+        <v>43742</v>
+      </c>
+      <c r="I23" s="5"/>
+      <c r="K23" s="4">
+        <v>43756</v>
+      </c>
+      <c r="L23" s="5"/>
+      <c r="N23" s="4">
+        <v>43770</v>
+      </c>
+      <c r="O23" s="5"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B24" s="4">
+        <v>43715</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="E24" s="4">
+        <v>43729</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="H24" s="4">
+        <v>43743</v>
+      </c>
+      <c r="I24" s="5"/>
+      <c r="K24" s="4">
+        <v>43757</v>
+      </c>
+      <c r="L24" s="5"/>
+      <c r="N24" s="4">
+        <v>43771</v>
+      </c>
+      <c r="O24" s="5"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B25" s="4">
+        <v>43716</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="E25" s="4">
+        <v>43730</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="H25" s="4">
+        <v>43744</v>
+      </c>
+      <c r="I25" s="5"/>
+      <c r="K25" s="4">
+        <v>43758</v>
+      </c>
+      <c r="L25" s="5"/>
+      <c r="N25" s="4">
+        <v>43772</v>
+      </c>
+      <c r="O25" s="5"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B26" s="4">
+        <v>43717</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="E26" s="4">
+        <v>43731</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="H26" s="4">
+        <v>43745</v>
+      </c>
+      <c r="I26" s="5"/>
+      <c r="K26" s="4">
+        <v>43759</v>
+      </c>
+      <c r="L26" s="5"/>
+      <c r="N26" s="4">
+        <v>43773</v>
+      </c>
+      <c r="O26" s="5"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B27" s="4">
+        <v>43718</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="E27" s="4">
+        <v>43732</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="H27" s="4">
+        <v>43746</v>
+      </c>
+      <c r="I27" s="5"/>
+      <c r="K27" s="4">
+        <v>43760</v>
+      </c>
+      <c r="L27" s="5"/>
+      <c r="N27" s="4">
+        <v>43774</v>
+      </c>
+      <c r="O27" s="5"/>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B28" s="4">
+        <v>43719</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="E28" s="4">
+        <v>43733</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="H28" s="4">
+        <v>43747</v>
+      </c>
+      <c r="I28" s="5"/>
+      <c r="K28" s="4">
+        <v>43761</v>
+      </c>
+      <c r="L28" s="5"/>
+      <c r="N28" s="4">
+        <v>43775</v>
+      </c>
+      <c r="O28" s="5"/>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B29" s="4">
+        <v>43720</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="E29" s="4">
+        <v>43734</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="H29" s="4">
+        <v>43748</v>
+      </c>
+      <c r="I29" s="5"/>
+      <c r="K29" s="4">
+        <v>43762</v>
+      </c>
+      <c r="L29" s="5"/>
+      <c r="N29" s="4">
+        <v>43776</v>
+      </c>
+      <c r="O29" s="5"/>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B30" s="4">
+        <v>43721</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="E30" s="4">
+        <v>43735</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="H30" s="4">
+        <v>43749</v>
+      </c>
+      <c r="I30" s="5"/>
+      <c r="K30" s="4">
+        <v>43763</v>
+      </c>
+      <c r="L30" s="5"/>
+      <c r="N30" s="4">
+        <v>43777</v>
+      </c>
+      <c r="O30" s="5"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B31" s="4">
+        <v>43722</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="E31" s="4">
+        <v>43736</v>
+      </c>
+      <c r="F31" s="5"/>
+      <c r="H31" s="4">
+        <v>43750</v>
+      </c>
+      <c r="I31" s="5"/>
+      <c r="K31" s="4">
+        <v>43764</v>
+      </c>
+      <c r="L31" s="5"/>
+      <c r="N31" s="4">
+        <v>43778</v>
+      </c>
+      <c r="O31" s="5"/>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B32" s="4">
+        <v>43723</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="E32" s="4">
+        <v>43737</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="H32" s="4">
+        <v>43751</v>
+      </c>
+      <c r="I32" s="5"/>
+      <c r="K32" s="4">
+        <v>43765</v>
+      </c>
+      <c r="L32" s="5"/>
+      <c r="N32" s="4">
+        <v>43779</v>
+      </c>
+      <c r="O32" s="5"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B33" s="4">
+        <v>43724</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="E33" s="4">
+        <v>43738</v>
+      </c>
+      <c r="F33" s="5"/>
+      <c r="H33" s="4">
+        <v>43752</v>
+      </c>
+      <c r="I33" s="5"/>
+      <c r="K33" s="4">
+        <v>43766</v>
+      </c>
+      <c r="L33" s="5"/>
+      <c r="N33" s="4">
+        <v>43780</v>
+      </c>
+      <c r="O33" s="5"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B34" s="4">
+        <v>43725</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="E34" s="4">
+        <v>43739</v>
+      </c>
+      <c r="F34" s="5"/>
+      <c r="H34" s="4">
+        <v>43753</v>
+      </c>
+      <c r="I34" s="5"/>
+      <c r="K34" s="4">
+        <v>43767</v>
+      </c>
+      <c r="L34" s="5"/>
+      <c r="N34" s="4">
+        <v>43781</v>
+      </c>
+      <c r="O34" s="5"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B35" s="4">
+        <v>43726</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="E35" s="4">
+        <v>43740</v>
+      </c>
+      <c r="F35" s="5"/>
+      <c r="H35" s="4">
+        <v>43754</v>
+      </c>
+      <c r="I35" s="5"/>
+      <c r="K35" s="4">
+        <v>43768</v>
+      </c>
+      <c r="L35" s="5"/>
+      <c r="N35" s="4">
+        <v>43782</v>
+      </c>
+      <c r="O35" s="5"/>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B36" s="4"/>
+      <c r="C36" s="5"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="5"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="5"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="5"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="5"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="5">
+        <f>SUM(C22:C35)</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="5">
+        <f>SUM(F22:F35)</f>
+        <v>0</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I37" s="5">
+        <f>SUM(I22:I35)</f>
+        <v>0</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L37" s="5">
+        <f>SUM(L22:L35)</f>
+        <v>0</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O37" s="5">
+        <f>SUM(O22:O35)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="10">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
+  </tableParts>
+</worksheet>
 </file>